--- a/suppxls/Scen_pmodelcurt.xlsx
+++ b/suppxls/Scen_pmodelcurt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD59899D-FA7E-45C5-9B1D-6A685483696E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B819881-2F31-480F-8025-046D8A0F6D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030"/>
+    <workbookView xWindow="4560" yWindow="3210" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Attribute</t>
   </si>
@@ -65,21 +65,6 @@
     <t>ELCSOL</t>
   </si>
   <si>
-    <t>~TFM_MIG</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>LimType2</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>*1</t>
-  </si>
-  <si>
     <t>ELCSOL,ELCWIN</t>
   </si>
   <si>
@@ -96,9 +81,6 @@
   </si>
   <si>
     <t>add curtailment commodities as output</t>
-  </si>
-  <si>
-    <t>migrate AF(UP) to FX</t>
   </si>
   <si>
     <t>small incentive to produce curtailment commodity</t>
@@ -122,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,8 +152,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -506,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -577,129 +559,93 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="str">
+        <f>C12</f>
+        <v>ECurtWin</v>
+      </c>
+      <c r="E12">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="str">
-        <f>C15</f>
-        <v>ECurtWin</v>
-      </c>
-      <c r="E15">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="str">
+        <f>C13</f>
+        <v>ECurtSol</v>
+      </c>
+      <c r="E13">
+        <f>E12*2</f>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="str">
-        <f>C16</f>
-        <v>ECurtSol</v>
-      </c>
-      <c r="E16">
-        <f>E15*2</f>
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E17" t="s">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21">
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
-        <v>15</v>
+      <c r="E18" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -720,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -732,7 +678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/suppxls/Scen_pmodelcurt.xlsx
+++ b/suppxls/Scen_pmodelcurt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda_Jun2024\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B819881-2F31-480F-8025-046D8A0F6D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0ED9D2-68C2-42CC-9F60-39B3580838DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3210" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -89,16 +89,16 @@
     <t>solar will be curtailed before wind</t>
   </si>
   <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>relax any AFA that exist</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
     <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>relax any AFA that exist</t>
-  </si>
-  <si>
-    <t>LimType</t>
   </si>
 </sst>
 </file>
@@ -169,9 +169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -209,9 +209,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,26 +244,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,26 +279,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,38 +458,38 @@
   <dimension ref="B3:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="10.73046875" customWidth="1"/>
+    <col min="19" max="19" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -534,7 +500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -548,7 +514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -559,12 +525,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -581,7 +547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -599,7 +565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -615,17 +581,17 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -634,12 +600,12 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -659,7 +625,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -671,7 +637,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -683,7 +649,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
